--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_10_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_10_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38444.44028445321</v>
+        <v>7650443.616606183</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38444.44028445321</v>
+        <v>7650443.616606183</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27328.52559548145</v>
+        <v>2027351.293318143</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27328.52559548145</v>
+        <v>2027351.293318143</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1418694143.57472</v>
+        <v>56403823.85492412</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11513.34030697488</v>
+        <v>1255696.954547114</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22454.41006133517</v>
+        <v>2421251.084531531</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33392.31213892777</v>
+        <v>3586174.846839182</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>46199.16786354364</v>
+        <v>4740885.444656393</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>58796.1650023009</v>
+        <v>5853834.183887743</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>71393.16214105817</v>
+        <v>6966782.923119092</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>83990.15927981543</v>
+        <v>8079731.662350438</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>96587.15641857269</v>
+        <v>9192680.401581783</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>109838.8828637224</v>
+        <v>10298015.01257595</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>122998.0951041819</v>
+        <v>11393379.37142669</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>135844.5757258068</v>
+        <v>12503154.06784227</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>146853.6129265232</v>
+        <v>13626007.1814359</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>158072.5087130982</v>
+        <v>14790622.15361538</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>170427.8371692603</v>
+        <v>15809645.27843845</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>182815.818466384</v>
+        <v>16825549.11530152</v>
       </c>
     </row>
   </sheetData>
